--- a/splited_sound_with_noise/splited_sound_with_noisesplited_sound_with_noise.xlsx
+++ b/splited_sound_with_noise/splited_sound_with_noisesplited_sound_with_noise.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mj\Downloads\splited_sound_with_noise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\megacom\speech\splited_sound_with_noise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A357034D-8604-4FE7-9530-7E3BDDD52BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="2310" windowWidth="21600" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6150" yWindow="2310" windowWidth="21600" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="1895">
   <si>
     <t>audio</t>
   </si>
@@ -5601,13 +5600,130 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> بیبین من نصفشو میخواما گوسفند رو نصفشو میخام*</t>
+  </si>
+  <si>
+    <t>دیدین اره نه شما زنگ بزنین فقط چون من وسیله دارم زنگ بزنین که من  چیز داشته باشم که ماهی برسه من بیام همونجا اون مهره پهره هاشم دربیارین که ببرم</t>
+  </si>
+  <si>
+    <t>نه میدونم میدونم اقای حیدریان رو میشناسین*</t>
+  </si>
+  <si>
+    <t>نه قلم گوسفند نیستش فقط این فرمودید یک کیلو قیمه ایی گوشت گوسفندی یا گوساله</t>
+  </si>
+  <si>
+    <t>من کرامتی هستم از امم دوستان اقای بهشتی  میخواستم ببینم فردا تشریف دارن یا نه بیام خدمتتون</t>
+  </si>
+  <si>
+    <t>*بالو پاچینم هه بالو پاچینم هست کیلویی صدو هیفده</t>
+  </si>
+  <si>
+    <t>سلام حال شما خسته نباشین خیلی ممنون در خدمتم بفرمایید کله پاچه هم شما دارین</t>
+  </si>
+  <si>
+    <t>از دی از دیشب تموم شده فقط ساوانا موجوده</t>
+  </si>
+  <si>
+    <t>میگم چرخ بشه براتون میزارم کنار*</t>
+  </si>
+  <si>
+    <t>بعد لطف بعد لطفا بگو که این از دو کیلو بیشتر نشه</t>
+  </si>
+  <si>
+    <t>معرفی میکنید خودتون رو ای بابا چیکار داری من کیم</t>
+  </si>
+  <si>
+    <t>مچکر خواهش میکنم قربان شما خدانگهدار</t>
+  </si>
+  <si>
+    <t>زعفرونو اینا چنده بسته ایی چند میشه اینا</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> بعد عع ببخشید کارت خوان هم دارید همونجا حساب کنیم</t>
+  </si>
+  <si>
+    <t>ارهه من الان خودمم دوبار قبل از این باهاتون تماس گرفتم جواب ندادین</t>
+  </si>
+  <si>
+    <t>خب من الان دوازده خوبه دواده اگه پنج شنبه بهم بدن خوبه*</t>
+  </si>
+  <si>
+    <t>عه خب یک دونه هم مرغ ساوانا برام زحمتشو بکشین</t>
+  </si>
+  <si>
+    <t>سیصدو بیست و پنج سیصدو بیست و هش</t>
+  </si>
+  <si>
+    <t>قربون شما سلامت باشد ممنونم بعد  ارسالتون رایگانه یا نه هزینه داره</t>
+  </si>
+  <si>
+    <t>ها قلوه گاه که کلا اصن به عنوان چربی استفاده میشه چون سینه  بوقلمونو رون بوقلمون خشکهه</t>
+  </si>
+  <si>
+    <t>عهه یه سوال داشتم از خدمتتون شما گوشت های چرخ کرده تون رو میشوریین یا نه</t>
+  </si>
+  <si>
+    <t>واستا الان  میام میام چشم چشم قربونت  کیلو چنده مرغ</t>
+  </si>
+  <si>
+    <t>دویستو شصتو سه ممنون ازتون  خدانگهدار بله سلامت باشید خدا</t>
+  </si>
+  <si>
+    <t>ععع اسنپ اگه  لطف کنید شما بگیرید</t>
+  </si>
+  <si>
+    <t>خیلی خب باشه حله هیچی نداشته باشه ضایعات هیچی نداشته باشه خب</t>
+  </si>
+  <si>
+    <t>اگه امد که ممنونتون میشم یه تماسی باهام بگیرید</t>
+  </si>
+  <si>
+    <t>بله  کار دیگه ای ندارین  ممنونم لطف دارین روزتون بخیر</t>
+  </si>
+  <si>
+    <t>من سیمین سپهرم نمیدونم حالا چون همیشه اقایی که سفارش میگرفتن میشناسم</t>
+  </si>
+  <si>
+    <t>چهارتا مرغ میخوام دیگه گوشتو  اینا هم که میگین اوردین*</t>
+  </si>
+  <si>
+    <t>واسه ی این  قیمت های گوشت چرا انقدر اختلافه بینه</t>
+  </si>
+  <si>
+    <t>نگاااا گوسفندی کیلویی هفتصدو نودو هفته گوساله هم پونصدو هشتادو سه</t>
+  </si>
+  <si>
+    <t>ارسالمون یک تا چهاره امم عع کجاست محدودتون*</t>
+  </si>
+  <si>
+    <t>باشه بازم اگه یه درصد خواستید دیر تر بیاید به من یه خبر بدید</t>
+  </si>
+  <si>
+    <t>حسن اقا الان شما دو کیلو رو میخواد اگه چرخ بشه به من  بگید من میدونم چه گوشتی بزارم اره دو کیلو نه اصلامن میخوام یارو بند قیمت چیز میخوام گوشت دیروزو رد کنم خب</t>
+  </si>
+  <si>
+    <t>نه نه نه ما کلا ما کلا ماهی قزل با یکی دو جا کلا کار میکینم جفتشونم ماهی هاش رود خونه ایه</t>
+  </si>
+  <si>
+    <t>قربان شما ببخشید معذرت میخوام اگه ممکنه که بهنام سوهانگر</t>
+  </si>
+  <si>
+    <t>معلوم نیست والا میگم چون سرش یه مقدار شلوغ شده صبحای دیگه هم نیست سر میزنن  معلوم نیست کی بیان احتمال داره بیان یه نیم ساعت سر بزنن باز برن شما شماره تماستونو به من</t>
+  </si>
+  <si>
+    <t>خب بی زحمت  پس خودتون یه نگاه بکنید رنگ پوستش روشن باشه</t>
+  </si>
+  <si>
+    <t>بله خیلی ممنون  دست شما درد نکنه خواهش میکنم سلامت باشید خدانگهدار خدافظ خدافظ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5624,6 +5740,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5665,12 +5788,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5973,11 +6097,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5988,7 +6112,7 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5999,7 +6123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6007,8 +6131,11 @@
         <f>HYPERLINK("1739962614_1_SPK_0_20250215_v2.1739624456.2279776.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6016,8 +6143,11 @@
         <f>HYPERLINK("1739962861_38_SPK_1_20250216_v2.1739695895.2308017.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6025,8 +6155,11 @@
         <f>HYPERLINK("1739962861_19_SPK_1_20250216_v2.1739695895.2308017.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -6034,8 +6167,11 @@
         <f>HYPERLINK("1739962447_3_SPK_1_20250216_v2.1739686917.2297991.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -6043,8 +6179,11 @@
         <f>HYPERLINK("1739962549_5_SPK_0_20250213_v2.1739451059.2219119.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -6052,8 +6191,11 @@
         <f>HYPERLINK("1739962868_2_SPK_0_20250215_v2.1739614231.2265805.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -6061,8 +6203,11 @@
         <f>HYPERLINK("1739962986_0_SPK_1_20250217_v2.1739811359.2393115.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -6070,8 +6215,11 @@
         <f>HYPERLINK("1739962961_3_SPK_0_20250217_v2.1739810168.2391982.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -6079,8 +6227,11 @@
         <f>HYPERLINK("1739962211_2_SPK_1_20250216_v2.1739685520.2296728.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -6088,8 +6239,11 @@
         <f>HYPERLINK("1739962488_1_SPK_1_20250215_v2.1739630112.2282679.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -6097,8 +6251,11 @@
         <f>HYPERLINK("1739962419_0_SPK_0_20250215_v2.1739617417.2275380.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -6106,8 +6263,11 @@
         <f>HYPERLINK("1739962409_5_SPK_0_20250218_v2.1739864349.2431631.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -6116,7 +6276,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -6124,8 +6284,11 @@
         <f>HYPERLINK("1739962916_1_SPK_0_20250216_v2.1739691549.2303016.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -6133,8 +6296,11 @@
         <f>HYPERLINK("1739962405_5_SPK_1_20250215_v2.1739608747.2261893.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -6142,8 +6308,11 @@
         <f>HYPERLINK("1739962599_1_SPK_0_20250213_v2.1739451282.2219328.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -6151,8 +6320,11 @@
         <f>HYPERLINK("1739962709_12_SPK_0_20250217_v2.1739780534.2356086.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -6160,8 +6332,11 @@
         <f>HYPERLINK("1739962532_5_SPK_1_20250217_v2.1739782872.2359341.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -6169,8 +6344,11 @@
         <f>HYPERLINK("1739961678_11_SPK_1_20250213_v2.1739437852.2203015.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -6178,8 +6356,11 @@
         <f>HYPERLINK("1739962541_3_SPK_1_20250213_v2.1739448341.2216279.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -6187,8 +6368,11 @@
         <f>HYPERLINK("1739962161_12_SPK_0_20250215_v2.1739603840.2258967.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -6196,8 +6380,11 @@
         <f>HYPERLINK("1739962846_0_SPK_0_20250215_v2.1739632370.2283812.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -6206,7 +6393,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -6214,8 +6401,11 @@
         <f>HYPERLINK("1739962981_10_SPK_0_20250215_v2.1739611404.2264001.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -6223,8 +6413,11 @@
         <f>HYPERLINK("1739962228_3_SPK_0_20250213_v2.1739444223.2211831.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -6232,8 +6425,11 @@
         <f>HYPERLINK("1739962243_2_SPK_0_20250217_v2.1739806377.2388198.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -6241,8 +6437,11 @@
         <f>HYPERLINK("1739962682_6_SPK_0_20250216_v2.1739692655.2304622.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -6250,8 +6449,11 @@
         <f>HYPERLINK("1739962409_4_SPK_0_20250218_v2.1739864349.2431631.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -6259,8 +6461,11 @@
         <f>HYPERLINK("1739961688_15_SPK_1_20250213_v2.1739437852.2203015.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -6269,7 +6474,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -6277,8 +6482,11 @@
         <f>HYPERLINK("1739962733_5_SPK_0_20250215_v2.1739626568.2281038.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -6287,7 +6495,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -6295,8 +6503,11 @@
         <f>HYPERLINK("1739962524_7_SPK_0_20250216_v2.1739692453.2304390.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -6304,8 +6515,11 @@
         <f>HYPERLINK("1739962282_1_SPK_1_20250216_v2.1739683975.2295726.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -6314,7 +6528,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -6323,7 +6537,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -6331,8 +6545,11 @@
         <f>HYPERLINK("1739963011_9_SPK_0_20250213_v2.1739440064.2207039.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -6340,8 +6557,11 @@
         <f>HYPERLINK("1739962797_3_SPK_0_20250215_v2.1739636853.2285938.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -6349,8 +6569,11 @@
         <f>HYPERLINK("1739962388_5_SPK_1_20250213_v2.1739437852.2203015.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -6358,8 +6581,11 @@
         <f>HYPERLINK("1739962682_9_SPK_0_20250216_v2.1739692655.2304622.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -6367,8 +6593,11 @@
         <f>HYPERLINK("1739962416_1_SPK_1_20250216_v2.1739698726.2310851.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -6376,8 +6605,11 @@
         <f>HYPERLINK("1739962259_1_SPK_0_20250216_v2.1739685748.2296920.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -6385,8 +6617,11 @@
         <f>HYPERLINK("1739962266_16_SPK_0_20250215_v2.1739600840.2256930.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -6394,8 +6629,11 @@
         <f>HYPERLINK("1739962559_1_SPK_0_20250216_v2.1739714522.2336106.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -6404,7 +6642,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -6412,8 +6650,11 @@
         <f>HYPERLINK("1739962305_4_SPK_1_20250216_v2.1739695176.2307286.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -6421,8 +6662,11 @@
         <f>HYPERLINK("1739962974_10_SPK_1_20250215_v2.1739611272.2263888.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -6431,7 +6675,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -6439,8 +6683,11 @@
         <f>HYPERLINK("1739961645_11_SPK_0_20250213_v2.1739437852.2203015.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -6449,7 +6696,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -6458,7 +6705,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -6467,7 +6714,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -6476,7 +6723,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -6485,7 +6732,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -6494,7 +6741,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -6503,7 +6750,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -6512,7 +6759,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -6521,7 +6768,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -6530,7 +6777,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -6539,7 +6786,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -6548,7 +6795,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -6557,7 +6804,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>

--- a/splited_sound_with_noise/splited_sound_with_noisesplited_sound_with_noise.xlsx
+++ b/splited_sound_with_noise/splited_sound_with_noisesplited_sound_with_noise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 project\megacom\speech\splited_sound_with_noise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE80C5C-9F8B-4A49-AEFA-9C87BC1527F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E2BAAC-ED78-47D8-B7F6-71625EAFEFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="1895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="1899">
   <si>
     <t>audio</t>
   </si>
@@ -5718,16 +5718,36 @@
   </si>
   <si>
     <t>بله خیلی ممنون  دست شما درد نکنه خواهش میکنم سلامت باشید خدانگهدار خدافظ خدافظ</t>
+  </si>
+  <si>
+    <t>جناب بار ارسالیم دارین  من شماره پلاک سی و دو هستم  صابعی</t>
+  </si>
+  <si>
+    <t>خانم زرندی  باش در خ از  خیلی مچکرم   قربان شما   خداحافظ  یا علی</t>
+  </si>
+  <si>
+    <t>* چند کیلوه هر کدوم از وز وزن ماهی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حالا باید بگیم </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5796,31 +5816,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
-    <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
-    <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
-    <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
+  <cellStyles count="6">
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
+    <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6123,8 +6146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1843"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6294,7 +6317,7 @@
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6" t="str">
+      <c r="B14" s="7" t="str">
         <f>HYPERLINK("1739962654_15_SPK_0_20250215_v2.1739599940.2256629.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
@@ -6411,7 +6434,7 @@
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="6" t="str">
+      <c r="B24" s="7" t="str">
         <f>HYPERLINK("1739961628_0_SPK_0_20250213_v2.1739437852.2203015.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
@@ -6517,6 +6540,9 @@
         <f>HYPERLINK("1739961698_1_SPK_1_20250213_v2.1739437852.2203015.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C33" s="1" t="s">
+        <v>1897</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -6546,9 +6572,12 @@
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="6" t="str">
+      <c r="B36" s="7" t="str">
         <f>HYPERLINK("1739962606_5_SPK_0_20250215_v2.1739630799.2283007.wav", "Play Audio")</f>
         <v>Play Audio</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1895</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -6559,6 +6588,9 @@
         <f>HYPERLINK("1739962360_8_SPK_0_20250216_v2.1739716378.2337553.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C37" s="1" t="s">
+        <v>1896</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -6612,12 +6644,12 @@
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="6" t="str">
+      <c r="B42" s="7" t="str">
         <f>HYPERLINK("1739962416_1_SPK_1_20250216_v2.1739698726.2310851.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1855</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">

--- a/splited_sound_with_noise/splited_sound_with_noisesplited_sound_with_noise.xlsx
+++ b/splited_sound_with_noise/splited_sound_with_noisesplited_sound_with_noise.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="1895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="1895">
   <si>
     <t>audio</t>
   </si>
@@ -5788,13 +5788,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6100,15 +6103,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1843"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="66.140625" customWidth="1"/>
+    <col min="3" max="3" width="78.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6332,6 +6335,7 @@
         <f>HYPERLINK("1739962532_5_SPK_1_20250217_v2.1739782872.2359341.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C19" s="4"/>
       <c r="D19" t="s">
         <v>1872</v>
       </c>
@@ -6640,6 +6644,9 @@
       <c r="B46" t="str">
         <f>HYPERLINK("1739962622_2_SPK_0_20250216_v2.1739720481.2339514.wav", "Play Audio")</f>
         <v>Play Audio</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1855</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">

--- a/splited_sound_with_noise/splited_sound_with_noisesplited_sound_with_noise.xlsx
+++ b/splited_sound_with_noise/splited_sound_with_noisesplited_sound_with_noise.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 project\megacom\speech\splited_sound_with_noise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\megacom\speech\splited_sound_with_noise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E2BAAC-ED78-47D8-B7F6-71625EAFEFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="1899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="1920">
   <si>
     <t>audio</t>
   </si>
@@ -5730,12 +5729,75 @@
   </si>
   <si>
     <t xml:space="preserve">حالا باید بگیم </t>
+  </si>
+  <si>
+    <t>پنج کیلو خوبه پنج کیلو خوبه بگیرم</t>
+  </si>
+  <si>
+    <t>طبقه ی ششم باشه اوکیه بفرمایید چی نیاز دارید</t>
+  </si>
+  <si>
+    <t>میخواستم ببینم پاچین اومده یا نه پنج شنبه اومدم گفتین شنبه بیا</t>
+  </si>
+  <si>
+    <t>سلام گوشت اطمینان بفرمایید خسته نباشین</t>
+  </si>
+  <si>
+    <t>باشه بزارین من یادداشت کنم  فقط سفارشتونو خب</t>
+  </si>
+  <si>
+    <t>خیلی خب باشه باشه من الان درمیارم تو سیستم شما فردا صبح تشریف بیارید ببرین بالتونو</t>
+  </si>
+  <si>
+    <t>هفتصد گرم عع انگار یک کیلو گوشت گوسفندی کتف و  یکیلویم</t>
+  </si>
+  <si>
+    <t>نه همون یک یک کیلویی برای من بی زحمت بفرستین</t>
+  </si>
+  <si>
+    <t>میخواستم برام گوشت ارسال کنید من همسایه بقلیتون هستم برام ارسال میکنید</t>
+  </si>
+  <si>
+    <t>سلا م احوال شما خسته نباشید روحانی هستم حالتون خوبه</t>
+  </si>
+  <si>
+    <t>اینو بین ساعت دو تا چهار براتون میفرستم</t>
+  </si>
+  <si>
+    <t>بله بلدرچین سفارش اوله بلدرچین</t>
+  </si>
+  <si>
+    <t>مثلا ما الان اطلاعیه خواسته باشیم تو امامتیم</t>
+  </si>
+  <si>
+    <t>از گوشت اطمینان مزاحمتون شدم عع جسارتا  میخواستم  ببینم که شما سفارش داشتین درسته یا نه</t>
+  </si>
+  <si>
+    <t>ببینین هرچی شد همه هش تیکه بشه خب فقط اون یدونشو  اون دوتا سینه هاش انگار سالم باشه</t>
+  </si>
+  <si>
+    <t>ولی گوسفندی داستانش فرق میکنه گوسفندی نصف نصف میتونیم بزنیم چون گوشته دیگه</t>
+  </si>
+  <si>
+    <t>یه دو سه ساعت دیگه خبر بگیرین ببینم اگه جمع شده  باشه میگم بیارن</t>
+  </si>
+  <si>
+    <t>ولی میگم یه مقدار  فقط شلوغه وگرن الان*</t>
+  </si>
+  <si>
+    <t>ولی ساعتای دوازدهو نیم یک میاد حالا شما هر تایمی میخوایید تشریف بیارید به ما بگید که براتون بزارم کنار</t>
+  </si>
+  <si>
+    <t>اره هستش  مرغ هستش هم مرغ ساوانا داریم هم مرغ معمولی سفید گوشت</t>
+  </si>
+  <si>
+    <t>جناب جسارتا چرخیمون پنج شنبه خراب شده</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5824,7 +5886,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3"/>
@@ -5837,6 +5899,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -6143,11 +6206,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6777,6 +6840,9 @@
         <f>HYPERLINK("1739962211_5_SPK_0_20250216_v2.1739685520.2296728.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C54" s="8" t="s">
+        <v>1899</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -6786,6 +6852,9 @@
         <f>HYPERLINK("1739962426_4_SPK_0_20250213_v2.1739453516.2221986.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C55" s="8" t="s">
+        <v>1900</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -6795,6 +6864,9 @@
         <f>HYPERLINK("1739962966_0_SPK_1_20250215_v2.1739600150.2256688.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C56" s="8" t="s">
+        <v>1901</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -6804,6 +6876,9 @@
         <f>HYPERLINK("1739962726_0_SPK_0_20250216_v2.1739685577.2296775.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C57" s="8" t="s">
+        <v>1902</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -6813,6 +6888,9 @@
         <f>HYPERLINK("1739962503_1_SPK_0_20250215_v2.1739623381.2279172.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C58" s="8" t="s">
+        <v>1903</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -6822,6 +6900,9 @@
         <f>HYPERLINK("1739962812_2_SPK_0_20250216_v2.1739717654.2338337.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C59" s="8" t="s">
+        <v>1904</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -6831,6 +6912,9 @@
         <f>HYPERLINK("1739962955_1_SPK_1_20250213_v2.1739439090.2205291.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C60" s="8" t="s">
+        <v>1905</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -6849,6 +6933,9 @@
         <f>HYPERLINK("1739962753_20_SPK_0_20250217_v2.1739783930.2360950.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C62" s="8" t="s">
+        <v>1906</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
@@ -6858,6 +6945,9 @@
         <f>HYPERLINK("1739962426_0_SPK_1_20250213_v2.1739453516.2221986.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C63" s="8" t="s">
+        <v>1907</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
@@ -6867,8 +6957,11 @@
         <f>HYPERLINK("1739962643_0_SPK_0_20250215_v2.1739619674.2276612.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="8" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>66</v>
       </c>
@@ -6876,8 +6969,11 @@
         <f>HYPERLINK("1739962376_26_SPK_1_20250215_v2.1739611648.2264164.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="8" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>67</v>
       </c>
@@ -6885,8 +6981,11 @@
         <f>HYPERLINK("1739962293_14_SPK_0_20250218_v2.1739858897.2424782.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="8" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>68</v>
       </c>
@@ -6895,7 +6994,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>69</v>
       </c>
@@ -6903,8 +7002,11 @@
         <f>HYPERLINK("1739962519_1_SPK_0_20250217_v2.1739806854.2388719.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="8" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>70</v>
       </c>
@@ -6912,8 +7014,11 @@
         <f>HYPERLINK("1739962383_0_SPK_1_20250215_v2.1739615299.2266018.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="8" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>71</v>
       </c>
@@ -6921,8 +7026,11 @@
         <f>HYPERLINK("1739962206_3_SPK_1_20250216_v2.1739687635.2298780.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="8" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>72</v>
       </c>
@@ -6930,8 +7038,11 @@
         <f>HYPERLINK("1739963011_7_SPK_0_20250213_v2.1739440064.2207039.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="8" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>73</v>
       </c>
@@ -6939,8 +7050,11 @@
         <f>HYPERLINK("1739962699_5_SPK_0_20250216_v2.1739705425.2330497.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="8" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>74</v>
       </c>
@@ -6948,8 +7062,11 @@
         <f>HYPERLINK("1739962981_9_SPK_0_20250215_v2.1739611404.2264001.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" s="8" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>75</v>
       </c>
@@ -6958,7 +7075,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>76</v>
       </c>
@@ -6966,8 +7083,11 @@
         <f>HYPERLINK("1739962675_1_SPK_1_20250218_v2.1739864093.2431257.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" s="8" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>77</v>
       </c>
@@ -6975,17 +7095,20 @@
         <f>HYPERLINK("1739962981_1_SPK_1_20250215_v2.1739611404.2264001.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" s="8" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="6" t="str">
+      <c r="B77" s="7" t="str">
         <f>HYPERLINK("1739962691_0_SPK_0_20250218_v2.1739866544.2434478.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>79</v>
       </c>
@@ -6993,8 +7116,11 @@
         <f>HYPERLINK("1739962471_3_SPK_0_20250215_v2.1739606877.2260698.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" s="8" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>80</v>
       </c>
@@ -7003,7 +7129,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>81</v>
       </c>

--- a/splited_sound_with_noise/splited_sound_with_noisesplited_sound_with_noise.xlsx
+++ b/splited_sound_with_noise/splited_sound_with_noisesplited_sound_with_noise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 project\megacom\speech\splited_sound_with_noise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E2BAAC-ED78-47D8-B7F6-71625EAFEFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FA40BB-EC24-4367-8BC0-B070F087F0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105" yWindow="1575" windowWidth="13335" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="1899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="1905">
   <si>
     <t>audio</t>
   </si>
@@ -5663,9 +5663,6 @@
     <t>ها قلوه گاه که کلا اصن به عنوان چربی استفاده میشه چون سینه  بوقلمونو رون بوقلمون خشکهه</t>
   </si>
   <si>
-    <t>عهه یه سوال داشتم از خدمتتون شما گوشت های چرخ کرده تون رو میشوریین یا نه</t>
-  </si>
-  <si>
     <t>واستا الان  میام میام چشم چشم قربونت  کیلو چنده مرغ</t>
   </si>
   <si>
@@ -5729,7 +5726,28 @@
     <t>* چند کیلوه هر کدوم از وز وزن ماهی</t>
   </si>
   <si>
-    <t xml:space="preserve">حالا باید بگیم </t>
+    <t>یه عدد دوتا سینه است تیکه نکردی درسته اره  ا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حالا باید بگیم ینی ما  الان موخام یارو برا ناهار ساعت یک من هنو دارم سرم گرمه دیدی  مغازم آبروم رفت </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* گوشت چرخ کرده که سفارش داده بودین </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بله جناب ملایی کیا  هستم هردو خروجی چنده </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* فقط آقای بهرامی گفتن که </t>
+  </si>
+  <si>
+    <t>همون درمونگاه ولی عصر  قبلش خب فروشگاه ماس</t>
+  </si>
+  <si>
+    <t>عع یه سوال داشتم از خدمتتون شما گوشت های چرخ کرده تون رو میشوریین یا نه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عع فراییم زحنت بکشید </t>
   </si>
 </sst>
 </file>
@@ -6146,8 +6164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6427,7 +6445,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1876</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6438,6 +6456,9 @@
         <f>HYPERLINK("1739961628_0_SPK_0_20250213_v2.1739437852.2203015.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>1904</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -6448,7 +6469,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -6460,7 +6481,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -6472,7 +6493,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -6484,7 +6505,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -6496,7 +6517,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -6508,16 +6529,19 @@
         <v>Play Audio</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="6" t="str">
+      <c r="B31" s="7" t="str">
         <f>HYPERLINK("1739962354_4_SPK_1_20250216_v2.1739698639.2310716.wav", "Play Audio")</f>
         <v>Play Audio</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1902</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -6529,7 +6553,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -6541,7 +6565,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -6553,7 +6577,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -6565,7 +6589,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -6577,7 +6601,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -6589,7 +6613,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -6601,7 +6625,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6613,7 +6637,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -6625,7 +6649,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -6637,7 +6661,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -6661,7 +6685,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1855</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6673,7 +6697,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -6685,16 +6709,19 @@
         <v>Play Audio</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="6" t="str">
+      <c r="B46" s="7" t="str">
         <f>HYPERLINK("1739962622_2_SPK_0_20250216_v2.1739720481.2339514.wav", "Play Audio")</f>
         <v>Play Audio</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1900</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6706,7 +6733,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -6718,16 +6745,19 @@
         <v>Play Audio</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="6" t="str">
+      <c r="B49" s="7" t="str">
         <f>HYPERLINK("1739962503_0_SPK_1_20250215_v2.1739623381.2279172.wav", "Play Audio")</f>
         <v>Play Audio</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1901</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6739,16 +6769,19 @@
         <v>Play Audio</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="6" t="str">
+      <c r="B51" s="7" t="str">
         <f>HYPERLINK("1739961687_4_SPK_0_20250213_v2.1739437852.2203015.wav", "Play Audio")</f>
         <v>Play Audio</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1897</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6759,6 +6792,9 @@
         <f>HYPERLINK("1739962432_13_SPK_1_20250215_v2.1739642412.2288835.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C52" s="1" t="s">
+        <v>1855</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
@@ -6768,6 +6804,9 @@
         <f>HYPERLINK("1739962597_15_SPK_0_20250215_v2.1739624662.2279909.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C53" s="1" t="s">
+        <v>1855</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
@@ -6840,6 +6879,9 @@
         <f>HYPERLINK("1739962360_7_SPK_1_20250216_v2.1739716378.2337553.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C61" s="1" t="s">
+        <v>1855</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
@@ -6868,7 +6910,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>66</v>
       </c>
@@ -6877,7 +6919,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>67</v>
       </c>
@@ -6886,7 +6928,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>68</v>
       </c>
@@ -6894,26 +6936,29 @@
         <f>HYPERLINK("1739962197_4_SPK_0_20250215_v2.1739615161.2265876.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="6" t="str">
+      <c r="B68" s="7" t="str">
         <f>HYPERLINK("1739962519_1_SPK_0_20250217_v2.1739806854.2388719.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="6" t="str">
+      <c r="B69" s="7" t="str">
         <f>HYPERLINK("1739962383_0_SPK_1_20250215_v2.1739615299.2266018.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>71</v>
       </c>
@@ -6922,7 +6967,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>72</v>
       </c>
@@ -6930,8 +6975,11 @@
         <f>HYPERLINK("1739963011_7_SPK_0_20250213_v2.1739440064.2207039.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>73</v>
       </c>
@@ -6940,7 +6988,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>74</v>
       </c>
@@ -6949,7 +6997,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>75</v>
       </c>
@@ -6958,7 +7006,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>76</v>
       </c>
@@ -6967,7 +7015,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>77</v>
       </c>
@@ -6976,7 +7024,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>78</v>
       </c>
@@ -6984,8 +7032,11 @@
         <f>HYPERLINK("1739962691_0_SPK_0_20250218_v2.1739866544.2434478.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>79</v>
       </c>
@@ -6994,7 +7045,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>80</v>
       </c>
@@ -7003,7 +7054,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>81</v>
       </c>
